--- a/Running projects/Amreli Steel - 10th Floor Dolmen Sky Tower Clifton Karachi/BOQ/Running Bill No 1 - Amreli steel (Verified).xlsx
+++ b/Running projects/Amreli Steel - 10th Floor Dolmen Sky Tower Clifton Karachi/BOQ/Running Bill No 1 - Amreli steel (Verified).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Amreli Steel - 10th Floor Dolmen Sky Tower Clifton Karachi\BOQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751DE3BA-820B-44BB-A849-A447C45E98A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6132F6-839B-4885-A3CE-C7F7C12125F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2003,6 +2003,9 @@
     <xf numFmtId="1" fontId="7" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2054,6 +2057,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2063,12 +2072,6 @@
     <xf numFmtId="166" fontId="7" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2077,9 +2080,6 @@
     </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2413,7 +2413,7 @@
   <dimension ref="A2:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2428,13 +2428,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="170" t="s">
+      <c r="A2" s="171" t="s">
         <v>201</v>
       </c>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
+      <c r="B2" s="171"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
       <c r="F2" s="49"/>
       <c r="G2" s="49"/>
       <c r="H2" s="49"/>
@@ -2450,32 +2450,32 @@
       <c r="H3" s="49"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="171" t="s">
+      <c r="A4" s="172" t="s">
         <v>198</v>
       </c>
-      <c r="B4" s="171"/>
-      <c r="C4" s="171"/>
-      <c r="D4" s="171"/>
-      <c r="E4" s="171"/>
+      <c r="B4" s="172"/>
+      <c r="C4" s="172"/>
+      <c r="D4" s="172"/>
+      <c r="E4" s="172"/>
       <c r="F4" s="49"/>
       <c r="G4" s="49"/>
       <c r="H4" s="49"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="172"/>
-      <c r="B5" s="172"/>
-      <c r="C5" s="172"/>
-      <c r="D5" s="172"/>
-      <c r="E5" s="172"/>
+      <c r="A5" s="173"/>
+      <c r="B5" s="173"/>
+      <c r="C5" s="173"/>
+      <c r="D5" s="173"/>
+      <c r="E5" s="173"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="173" t="s">
+      <c r="A6" s="174" t="s">
         <v>213</v>
       </c>
-      <c r="B6" s="173"/>
-      <c r="C6" s="173"/>
-      <c r="D6" s="173"/>
-      <c r="E6" s="173"/>
+      <c r="B6" s="174"/>
+      <c r="C6" s="174"/>
+      <c r="D6" s="174"/>
+      <c r="E6" s="174"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="51"/>
@@ -2488,10 +2488,10 @@
       <c r="A8" s="54" t="s">
         <v>192</v>
       </c>
-      <c r="B8" s="174" t="s">
+      <c r="B8" s="175" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="174"/>
+      <c r="C8" s="175"/>
       <c r="D8" s="55"/>
       <c r="E8" s="56" t="s">
         <v>193</v>
@@ -2499,8 +2499,8 @@
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="57"/>
-      <c r="B9" s="168"/>
-      <c r="C9" s="169"/>
+      <c r="B9" s="169"/>
+      <c r="C9" s="170"/>
       <c r="D9" s="57"/>
       <c r="E9" s="58"/>
     </row>
@@ -2508,10 +2508,10 @@
       <c r="A10" s="57">
         <v>1</v>
       </c>
-      <c r="B10" s="175" t="s">
+      <c r="B10" s="176" t="s">
         <v>194</v>
       </c>
-      <c r="C10" s="176"/>
+      <c r="C10" s="177"/>
       <c r="D10" s="57" t="s">
         <v>195</v>
       </c>
@@ -2522,8 +2522,8 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A11" s="57"/>
-      <c r="B11" s="168"/>
-      <c r="C11" s="169"/>
+      <c r="B11" s="169"/>
+      <c r="C11" s="170"/>
       <c r="D11" s="57"/>
       <c r="E11" s="59"/>
     </row>
@@ -2531,10 +2531,10 @@
       <c r="A12" s="57">
         <v>2</v>
       </c>
-      <c r="B12" s="175" t="s">
+      <c r="B12" s="176" t="s">
         <v>196</v>
       </c>
-      <c r="C12" s="176"/>
+      <c r="C12" s="177"/>
       <c r="D12" s="57" t="s">
         <v>195</v>
       </c>
@@ -2545,8 +2545,8 @@
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A13" s="57"/>
-      <c r="B13" s="177"/>
-      <c r="C13" s="177"/>
+      <c r="B13" s="178"/>
+      <c r="C13" s="178"/>
       <c r="D13" s="57"/>
       <c r="E13" s="58"/>
     </row>
@@ -2575,10 +2575,10 @@
     </row>
     <row r="16" spans="1:8" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="60"/>
-      <c r="B16" s="166" t="s">
+      <c r="B16" s="167" t="s">
         <v>197</v>
       </c>
-      <c r="C16" s="167"/>
+      <c r="C16" s="168"/>
       <c r="D16" s="61"/>
       <c r="E16" s="78">
         <f>SUM(E10:E14)</f>
@@ -2617,7 +2617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView topLeftCell="A61" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -2643,40 +2643,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="180" t="s">
+      <c r="A1" s="181" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
-      <c r="J1" s="180"/>
-      <c r="K1" s="180"/>
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="181"/>
+      <c r="F1" s="181"/>
+      <c r="G1" s="181"/>
+      <c r="H1" s="181"/>
+      <c r="I1" s="181"/>
+      <c r="J1" s="181"/>
+      <c r="K1" s="181"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="181" t="s">
+      <c r="A2" s="182" t="s">
         <v>194</v>
       </c>
-      <c r="B2" s="181"/>
-      <c r="C2" s="181"/>
-      <c r="D2" s="181"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="181"/>
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="182"/>
+      <c r="G2" s="182"/>
+      <c r="H2" s="182"/>
+      <c r="I2" s="182"/>
+      <c r="J2" s="182"/>
+      <c r="K2" s="182"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="180" t="s">
+      <c r="A3" s="181" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="180"/>
+      <c r="B3" s="181"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="4"/>
@@ -2690,10 +2690,10 @@
       </c>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="182" t="s">
+      <c r="A4" s="183" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="182"/>
+      <c r="B4" s="183"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="66"/>
@@ -2707,51 +2707,51 @@
       </c>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="179" t="s">
+      <c r="A5" s="180" t="s">
         <v>128</v>
       </c>
-      <c r="B5" s="179"/>
-      <c r="C5" s="179"/>
-      <c r="D5" s="179"/>
-      <c r="E5" s="179"/>
-      <c r="F5" s="179"/>
-      <c r="G5" s="179" t="s">
+      <c r="B5" s="180"/>
+      <c r="C5" s="180"/>
+      <c r="D5" s="180"/>
+      <c r="E5" s="180"/>
+      <c r="F5" s="180"/>
+      <c r="G5" s="180" t="s">
         <v>211</v>
       </c>
-      <c r="H5" s="179"/>
-      <c r="I5" s="179"/>
-      <c r="J5" s="179"/>
-      <c r="K5" s="179"/>
+      <c r="H5" s="180"/>
+      <c r="I5" s="180"/>
+      <c r="J5" s="180"/>
+      <c r="K5" s="180"/>
     </row>
     <row r="6" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="178" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="178" t="s">
+      <c r="A6" s="179" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="179" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="178" t="s">
+      <c r="C6" s="179" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="178" t="s">
+      <c r="D6" s="179" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="178" t="s">
+      <c r="E6" s="179" t="s">
         <v>207</v>
       </c>
-      <c r="F6" s="178" t="s">
+      <c r="F6" s="179" t="s">
         <v>208</v>
       </c>
-      <c r="G6" s="178" t="s">
+      <c r="G6" s="179" t="s">
         <v>206</v>
       </c>
-      <c r="H6" s="178" t="s">
+      <c r="H6" s="179" t="s">
         <v>209</v>
       </c>
-      <c r="I6" s="178" t="s">
+      <c r="I6" s="179" t="s">
         <v>206</v>
       </c>
-      <c r="J6" s="178" t="s">
+      <c r="J6" s="179" t="s">
         <v>210</v>
       </c>
       <c r="K6" s="67" t="s">
@@ -2759,16 +2759,16 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="178"/>
-      <c r="B7" s="178"/>
-      <c r="C7" s="178"/>
-      <c r="D7" s="178"/>
-      <c r="E7" s="178"/>
-      <c r="F7" s="178"/>
-      <c r="G7" s="178"/>
-      <c r="H7" s="178"/>
-      <c r="I7" s="178"/>
-      <c r="J7" s="178"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
+      <c r="J7" s="179"/>
       <c r="K7" s="67" t="s">
         <v>5</v>
       </c>
@@ -6054,7 +6054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A986F67D-CBAB-4664-AED6-BDB95A1733AB}">
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A45" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -6075,40 +6075,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="180" t="s">
+      <c r="A1" s="181" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
-      <c r="J1" s="180"/>
-      <c r="K1" s="180"/>
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="181"/>
+      <c r="F1" s="181"/>
+      <c r="G1" s="181"/>
+      <c r="H1" s="181"/>
+      <c r="I1" s="181"/>
+      <c r="J1" s="181"/>
+      <c r="K1" s="181"/>
     </row>
     <row r="2" spans="1:11" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="181" t="s">
+      <c r="A2" s="182" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="181"/>
-      <c r="C2" s="181"/>
-      <c r="D2" s="181"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="181"/>
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="182"/>
+      <c r="G2" s="182"/>
+      <c r="H2" s="182"/>
+      <c r="I2" s="182"/>
+      <c r="J2" s="182"/>
+      <c r="K2" s="182"/>
     </row>
     <row r="3" spans="1:11" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="180" t="s">
+      <c r="A3" s="181" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="180"/>
+      <c r="B3" s="181"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="4"/>
@@ -6122,10 +6122,10 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="188" t="s">
+      <c r="A4" s="189" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="188"/>
+      <c r="B4" s="189"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
@@ -6139,16 +6139,16 @@
       </c>
     </row>
     <row r="5" spans="1:11" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="186" t="s">
+      <c r="A5" s="184" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="186" t="s">
+      <c r="B5" s="184" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="186" t="s">
+      <c r="C5" s="184" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="186" t="s">
+      <c r="D5" s="184" t="s">
         <v>126</v>
       </c>
       <c r="E5" s="76" t="s">
@@ -6157,38 +6157,38 @@
       <c r="F5" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="G5" s="178" t="s">
+      <c r="G5" s="179" t="s">
         <v>206</v>
       </c>
-      <c r="H5" s="178" t="s">
+      <c r="H5" s="179" t="s">
         <v>209</v>
       </c>
-      <c r="I5" s="178" t="s">
+      <c r="I5" s="179" t="s">
         <v>206</v>
       </c>
-      <c r="J5" s="178" t="s">
+      <c r="J5" s="179" t="s">
         <v>210</v>
       </c>
-      <c r="K5" s="186" t="s">
+      <c r="K5" s="184" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="11" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="187"/>
-      <c r="B6" s="187"/>
-      <c r="C6" s="187"/>
-      <c r="D6" s="187"/>
+      <c r="A6" s="185"/>
+      <c r="B6" s="185"/>
+      <c r="C6" s="185"/>
+      <c r="D6" s="185"/>
       <c r="E6" s="20" t="s">
         <v>127</v>
       </c>
       <c r="F6" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
-      <c r="J6" s="178"/>
-      <c r="K6" s="187"/>
+      <c r="G6" s="179"/>
+      <c r="H6" s="179"/>
+      <c r="I6" s="179"/>
+      <c r="J6" s="179"/>
+      <c r="K6" s="185"/>
     </row>
     <row r="7" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30"/>
@@ -6256,7 +6256,7 @@
       <c r="F10" s="64">
         <v>210</v>
       </c>
-      <c r="G10" s="191">
+      <c r="G10" s="166">
         <v>526.6</v>
       </c>
       <c r="H10" s="64">
@@ -6477,33 +6477,33 @@
       <c r="B16" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="C16" s="189" t="s">
+      <c r="C16" s="190" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="190">
+      <c r="D16" s="191">
         <v>46</v>
       </c>
-      <c r="E16" s="183">
+      <c r="E16" s="186">
         <v>3700</v>
       </c>
-      <c r="F16" s="183">
+      <c r="F16" s="186">
         <v>850</v>
       </c>
-      <c r="G16" s="183">
+      <c r="G16" s="186">
         <v>22</v>
       </c>
-      <c r="H16" s="183">
+      <c r="H16" s="186">
         <v>134400</v>
       </c>
-      <c r="I16" s="183">
+      <c r="I16" s="186">
         <f>G16</f>
         <v>22</v>
       </c>
-      <c r="J16" s="184">
+      <c r="J16" s="187">
         <f>I16*F16</f>
         <v>18700</v>
       </c>
-      <c r="K16" s="184">
+      <c r="K16" s="187">
         <f>J16+H16</f>
         <v>153100</v>
       </c>
@@ -6515,18 +6515,18 @@
       <c r="B17" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="C17" s="189"/>
-      <c r="D17" s="190"/>
-      <c r="E17" s="183"/>
-      <c r="F17" s="183"/>
-      <c r="G17" s="183"/>
-      <c r="H17" s="183"/>
-      <c r="I17" s="183">
+      <c r="C17" s="190"/>
+      <c r="D17" s="191"/>
+      <c r="E17" s="186"/>
+      <c r="F17" s="186"/>
+      <c r="G17" s="186"/>
+      <c r="H17" s="186"/>
+      <c r="I17" s="186">
         <f>G17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="185"/>
-      <c r="K17" s="185"/>
+      <c r="J17" s="188"/>
+      <c r="K17" s="188"/>
       <c r="L17" s="1" t="s">
         <v>212</v>
       </c>
@@ -7485,6 +7485,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="H16:H17"/>
     <mergeCell ref="K16:K17"/>
@@ -7501,12 +7507,6 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Running projects/Amreli Steel - 10th Floor Dolmen Sky Tower Clifton Karachi/BOQ/Running Bill No 1 - Amreli steel (Verified).xlsx
+++ b/Running projects/Amreli Steel - 10th Floor Dolmen Sky Tower Clifton Karachi/BOQ/Running Bill No 1 - Amreli steel (Verified).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Amreli Steel - 10th Floor Dolmen Sky Tower Clifton Karachi\BOQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6132F6-839B-4885-A3CE-C7F7C12125F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF051613-4C0B-4591-9E05-A8060C66A99E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="219">
   <si>
     <t>TOTAL</t>
   </si>
@@ -834,6 +834,15 @@
   </si>
   <si>
     <t>Variations (05 Nos)</t>
+  </si>
+  <si>
+    <t>ADD 4.5%</t>
+  </si>
+  <si>
+    <t>GRAND RECEIVALBES</t>
+  </si>
+  <si>
+    <t>RECEIVED</t>
   </si>
 </sst>
 </file>
@@ -2057,20 +2066,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2113,9 +2122,7 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="22">
-          <cell r="C22">
-            <v>1174421.2631999999</v>
-          </cell>
+          <cell r="C22"/>
         </row>
       </sheetData>
     </sheetDataSet>
@@ -2410,10 +2417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{135BAA56-829E-4FEA-93D8-3F24D6E833D9}">
-  <dimension ref="A2:H19"/>
+  <dimension ref="A2:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2585,14 +2592,50 @@
         <v>8808601.7631999999</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E17" s="62"/>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E18" s="62"/>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E19" s="62"/>
+    </row>
+    <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B20" s="120" t="s">
+        <v>216</v>
+      </c>
+      <c r="C20" s="121"/>
+      <c r="D20" s="57" t="s">
+        <v>195</v>
+      </c>
+      <c r="E20" s="122">
+        <f>E16*4.5%</f>
+        <v>396387.07934399997</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B22" s="120" t="s">
+        <v>217</v>
+      </c>
+      <c r="C22" s="121"/>
+      <c r="D22" s="57" t="s">
+        <v>195</v>
+      </c>
+      <c r="E22" s="122">
+        <f>E20+E16</f>
+        <v>9204988.8425440006</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B24" s="120" t="s">
+        <v>218</v>
+      </c>
+      <c r="C24" s="121"/>
+      <c r="D24" s="57" t="s">
+        <v>195</v>
+      </c>
+      <c r="E24" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -6139,16 +6182,16 @@
       </c>
     </row>
     <row r="5" spans="1:11" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="184" t="s">
+      <c r="A5" s="187" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="184" t="s">
+      <c r="B5" s="187" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="184" t="s">
+      <c r="C5" s="187" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="184" t="s">
+      <c r="D5" s="187" t="s">
         <v>126</v>
       </c>
       <c r="E5" s="76" t="s">
@@ -6169,15 +6212,15 @@
       <c r="J5" s="179" t="s">
         <v>210</v>
       </c>
-      <c r="K5" s="184" t="s">
+      <c r="K5" s="187" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="11" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="185"/>
-      <c r="B6" s="185"/>
-      <c r="C6" s="185"/>
-      <c r="D6" s="185"/>
+      <c r="A6" s="188"/>
+      <c r="B6" s="188"/>
+      <c r="C6" s="188"/>
+      <c r="D6" s="188"/>
       <c r="E6" s="20" t="s">
         <v>127</v>
       </c>
@@ -6188,7 +6231,7 @@
       <c r="H6" s="179"/>
       <c r="I6" s="179"/>
       <c r="J6" s="179"/>
-      <c r="K6" s="185"/>
+      <c r="K6" s="188"/>
     </row>
     <row r="7" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30"/>
@@ -6483,27 +6526,27 @@
       <c r="D16" s="191">
         <v>46</v>
       </c>
-      <c r="E16" s="186">
+      <c r="E16" s="184">
         <v>3700</v>
       </c>
-      <c r="F16" s="186">
+      <c r="F16" s="184">
         <v>850</v>
       </c>
-      <c r="G16" s="186">
+      <c r="G16" s="184">
         <v>22</v>
       </c>
-      <c r="H16" s="186">
+      <c r="H16" s="184">
         <v>134400</v>
       </c>
-      <c r="I16" s="186">
+      <c r="I16" s="184">
         <f>G16</f>
         <v>22</v>
       </c>
-      <c r="J16" s="187">
+      <c r="J16" s="185">
         <f>I16*F16</f>
         <v>18700</v>
       </c>
-      <c r="K16" s="187">
+      <c r="K16" s="185">
         <f>J16+H16</f>
         <v>153100</v>
       </c>
@@ -6517,16 +6560,16 @@
       </c>
       <c r="C17" s="190"/>
       <c r="D17" s="191"/>
-      <c r="E17" s="186"/>
-      <c r="F17" s="186"/>
-      <c r="G17" s="186"/>
-      <c r="H17" s="186"/>
-      <c r="I17" s="186">
+      <c r="E17" s="184"/>
+      <c r="F17" s="184"/>
+      <c r="G17" s="184"/>
+      <c r="H17" s="184"/>
+      <c r="I17" s="184">
         <f>G17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="188"/>
-      <c r="K17" s="188"/>
+      <c r="J17" s="186"/>
+      <c r="K17" s="186"/>
       <c r="L17" s="1" t="s">
         <v>212</v>
       </c>
@@ -7485,12 +7528,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="H16:H17"/>
     <mergeCell ref="K16:K17"/>
@@ -7507,6 +7544,12 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Running projects/Amreli Steel - 10th Floor Dolmen Sky Tower Clifton Karachi/BOQ/Running Bill No 1 - Amreli steel (Verified).xlsx
+++ b/Running projects/Amreli Steel - 10th Floor Dolmen Sky Tower Clifton Karachi/BOQ/Running Bill No 1 - Amreli steel (Verified).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Amreli Steel - 10th Floor Dolmen Sky Tower Clifton Karachi\BOQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF051613-4C0B-4591-9E05-A8060C66A99E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C469B6-D32C-415C-AB7A-70654B0B2E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -855,7 +855,7 @@
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1012,6 +1012,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1519,7 +1525,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2014,6 +2020,10 @@
     </xf>
     <xf numFmtId="167" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -2121,8 +2131,10 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="22">
-          <cell r="C22"/>
+        <row r="23">
+          <cell r="C23">
+            <v>1335898.3032</v>
+          </cell>
         </row>
       </sheetData>
     </sheetDataSet>
@@ -2420,7 +2432,7 @@
   <dimension ref="A2:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2430,18 +2442,18 @@
     <col min="3" max="3" width="7.5" style="50" customWidth="1"/>
     <col min="4" max="4" width="8.33203125" style="50" customWidth="1"/>
     <col min="5" max="5" width="27.1640625" style="50" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="50" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" style="50" customWidth="1"/>
     <col min="7" max="16384" width="9.33203125" style="50"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="171" t="s">
+      <c r="A2" s="173" t="s">
         <v>201</v>
       </c>
-      <c r="B2" s="171"/>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
+      <c r="B2" s="173"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
       <c r="F2" s="49"/>
       <c r="G2" s="49"/>
       <c r="H2" s="49"/>
@@ -2457,32 +2469,32 @@
       <c r="H3" s="49"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="172" t="s">
+      <c r="A4" s="174" t="s">
         <v>198</v>
       </c>
-      <c r="B4" s="172"/>
-      <c r="C4" s="172"/>
-      <c r="D4" s="172"/>
-      <c r="E4" s="172"/>
+      <c r="B4" s="174"/>
+      <c r="C4" s="174"/>
+      <c r="D4" s="174"/>
+      <c r="E4" s="174"/>
       <c r="F4" s="49"/>
       <c r="G4" s="49"/>
       <c r="H4" s="49"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="173"/>
-      <c r="B5" s="173"/>
-      <c r="C5" s="173"/>
-      <c r="D5" s="173"/>
-      <c r="E5" s="173"/>
+      <c r="A5" s="175"/>
+      <c r="B5" s="175"/>
+      <c r="C5" s="175"/>
+      <c r="D5" s="175"/>
+      <c r="E5" s="175"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="174" t="s">
+      <c r="A6" s="176" t="s">
         <v>213</v>
       </c>
-      <c r="B6" s="174"/>
-      <c r="C6" s="174"/>
-      <c r="D6" s="174"/>
-      <c r="E6" s="174"/>
+      <c r="B6" s="176"/>
+      <c r="C6" s="176"/>
+      <c r="D6" s="176"/>
+      <c r="E6" s="176"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="51"/>
@@ -2495,10 +2507,10 @@
       <c r="A8" s="54" t="s">
         <v>192</v>
       </c>
-      <c r="B8" s="175" t="s">
+      <c r="B8" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="175"/>
+      <c r="C8" s="177"/>
       <c r="D8" s="55"/>
       <c r="E8" s="56" t="s">
         <v>193</v>
@@ -2506,8 +2518,8 @@
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="57"/>
-      <c r="B9" s="169"/>
-      <c r="C9" s="170"/>
+      <c r="B9" s="171"/>
+      <c r="C9" s="172"/>
       <c r="D9" s="57"/>
       <c r="E9" s="58"/>
     </row>
@@ -2515,10 +2527,10 @@
       <c r="A10" s="57">
         <v>1</v>
       </c>
-      <c r="B10" s="176" t="s">
+      <c r="B10" s="178" t="s">
         <v>194</v>
       </c>
-      <c r="C10" s="177"/>
+      <c r="C10" s="179"/>
       <c r="D10" s="57" t="s">
         <v>195</v>
       </c>
@@ -2529,8 +2541,8 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A11" s="57"/>
-      <c r="B11" s="169"/>
-      <c r="C11" s="170"/>
+      <c r="B11" s="171"/>
+      <c r="C11" s="172"/>
       <c r="D11" s="57"/>
       <c r="E11" s="59"/>
     </row>
@@ -2538,10 +2550,10 @@
       <c r="A12" s="57">
         <v>2</v>
       </c>
-      <c r="B12" s="176" t="s">
+      <c r="B12" s="178" t="s">
         <v>196</v>
       </c>
-      <c r="C12" s="177"/>
+      <c r="C12" s="179"/>
       <c r="D12" s="57" t="s">
         <v>195</v>
       </c>
@@ -2549,11 +2561,15 @@
         <f>Fire!K52</f>
         <v>1333996.5</v>
       </c>
+      <c r="F12" s="168">
+        <f>E12+E10</f>
+        <v>7634180.5</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A13" s="57"/>
-      <c r="B13" s="178"/>
-      <c r="C13" s="178"/>
+      <c r="B13" s="180"/>
+      <c r="C13" s="180"/>
       <c r="D13" s="57"/>
       <c r="E13" s="58"/>
     </row>
@@ -2569,8 +2585,12 @@
         <v>195</v>
       </c>
       <c r="E14" s="122">
-        <f>[1]Sheet1!$C$22</f>
-        <v>1174421.2631999999</v>
+        <f>[1]Sheet1!$C$23</f>
+        <v>1335898.3032</v>
+      </c>
+      <c r="F14" s="167">
+        <f>E14</f>
+        <v>1335898.3032</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -2582,14 +2602,18 @@
     </row>
     <row r="16" spans="1:8" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="60"/>
-      <c r="B16" s="167" t="s">
+      <c r="B16" s="169" t="s">
         <v>197</v>
       </c>
-      <c r="C16" s="168"/>
+      <c r="C16" s="170"/>
       <c r="D16" s="61"/>
       <c r="E16" s="78">
         <f>SUM(E10:E14)</f>
-        <v>8808601.7631999999</v>
+        <v>8970078.803199999</v>
+      </c>
+      <c r="F16" s="78">
+        <f>SUM(F10:F14)</f>
+        <v>8970078.803199999</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
@@ -2611,7 +2635,7 @@
       </c>
       <c r="E20" s="122">
         <f>E16*4.5%</f>
-        <v>396387.07934399997</v>
+        <v>403653.54614399996</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -2624,7 +2648,7 @@
       </c>
       <c r="E22" s="122">
         <f>E20+E16</f>
-        <v>9204988.8425440006</v>
+        <v>9373732.3493439984</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -2686,40 +2710,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="181" t="s">
+      <c r="A1" s="183" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
-      <c r="E1" s="181"/>
-      <c r="F1" s="181"/>
-      <c r="G1" s="181"/>
-      <c r="H1" s="181"/>
-      <c r="I1" s="181"/>
-      <c r="J1" s="181"/>
-      <c r="K1" s="181"/>
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
+      <c r="G1" s="183"/>
+      <c r="H1" s="183"/>
+      <c r="I1" s="183"/>
+      <c r="J1" s="183"/>
+      <c r="K1" s="183"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="182" t="s">
+      <c r="A2" s="184" t="s">
         <v>194</v>
       </c>
-      <c r="B2" s="182"/>
-      <c r="C2" s="182"/>
-      <c r="D2" s="182"/>
-      <c r="E2" s="182"/>
-      <c r="F2" s="182"/>
-      <c r="G2" s="182"/>
-      <c r="H2" s="182"/>
-      <c r="I2" s="182"/>
-      <c r="J2" s="182"/>
-      <c r="K2" s="182"/>
+      <c r="B2" s="184"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
+      <c r="K2" s="184"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="181" t="s">
+      <c r="A3" s="183" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="181"/>
+      <c r="B3" s="183"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="4"/>
@@ -2733,10 +2757,10 @@
       </c>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="183" t="s">
+      <c r="A4" s="185" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="183"/>
+      <c r="B4" s="185"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="66"/>
@@ -2750,51 +2774,51 @@
       </c>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="180" t="s">
+      <c r="A5" s="182" t="s">
         <v>128</v>
       </c>
-      <c r="B5" s="180"/>
-      <c r="C5" s="180"/>
-      <c r="D5" s="180"/>
-      <c r="E5" s="180"/>
-      <c r="F5" s="180"/>
-      <c r="G5" s="180" t="s">
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182" t="s">
         <v>211</v>
       </c>
-      <c r="H5" s="180"/>
-      <c r="I5" s="180"/>
-      <c r="J5" s="180"/>
-      <c r="K5" s="180"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
+      <c r="J5" s="182"/>
+      <c r="K5" s="182"/>
     </row>
     <row r="6" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="179" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="179" t="s">
+      <c r="A6" s="181" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="179" t="s">
+      <c r="C6" s="181" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="179" t="s">
+      <c r="D6" s="181" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="179" t="s">
+      <c r="E6" s="181" t="s">
         <v>207</v>
       </c>
-      <c r="F6" s="179" t="s">
+      <c r="F6" s="181" t="s">
         <v>208</v>
       </c>
-      <c r="G6" s="179" t="s">
+      <c r="G6" s="181" t="s">
         <v>206</v>
       </c>
-      <c r="H6" s="179" t="s">
+      <c r="H6" s="181" t="s">
         <v>209</v>
       </c>
-      <c r="I6" s="179" t="s">
+      <c r="I6" s="181" t="s">
         <v>206</v>
       </c>
-      <c r="J6" s="179" t="s">
+      <c r="J6" s="181" t="s">
         <v>210</v>
       </c>
       <c r="K6" s="67" t="s">
@@ -2802,16 +2826,16 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
-      <c r="J7" s="179"/>
+      <c r="A7" s="181"/>
+      <c r="B7" s="181"/>
+      <c r="C7" s="181"/>
+      <c r="D7" s="181"/>
+      <c r="E7" s="181"/>
+      <c r="F7" s="181"/>
+      <c r="G7" s="181"/>
+      <c r="H7" s="181"/>
+      <c r="I7" s="181"/>
+      <c r="J7" s="181"/>
       <c r="K7" s="67" t="s">
         <v>5</v>
       </c>
@@ -6118,40 +6142,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="181" t="s">
+      <c r="A1" s="183" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
-      <c r="E1" s="181"/>
-      <c r="F1" s="181"/>
-      <c r="G1" s="181"/>
-      <c r="H1" s="181"/>
-      <c r="I1" s="181"/>
-      <c r="J1" s="181"/>
-      <c r="K1" s="181"/>
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
+      <c r="G1" s="183"/>
+      <c r="H1" s="183"/>
+      <c r="I1" s="183"/>
+      <c r="J1" s="183"/>
+      <c r="K1" s="183"/>
     </row>
     <row r="2" spans="1:11" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="182" t="s">
+      <c r="A2" s="184" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="182"/>
-      <c r="C2" s="182"/>
-      <c r="D2" s="182"/>
-      <c r="E2" s="182"/>
-      <c r="F2" s="182"/>
-      <c r="G2" s="182"/>
-      <c r="H2" s="182"/>
-      <c r="I2" s="182"/>
-      <c r="J2" s="182"/>
-      <c r="K2" s="182"/>
+      <c r="B2" s="184"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
+      <c r="K2" s="184"/>
     </row>
     <row r="3" spans="1:11" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="181" t="s">
+      <c r="A3" s="183" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="181"/>
+      <c r="B3" s="183"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="4"/>
@@ -6165,10 +6189,10 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="189" t="s">
+      <c r="A4" s="191" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="189"/>
+      <c r="B4" s="191"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
@@ -6182,16 +6206,16 @@
       </c>
     </row>
     <row r="5" spans="1:11" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="187" t="s">
+      <c r="A5" s="189" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="187" t="s">
+      <c r="B5" s="189" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="187" t="s">
+      <c r="C5" s="189" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="187" t="s">
+      <c r="D5" s="189" t="s">
         <v>126</v>
       </c>
       <c r="E5" s="76" t="s">
@@ -6200,38 +6224,38 @@
       <c r="F5" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="G5" s="179" t="s">
+      <c r="G5" s="181" t="s">
         <v>206</v>
       </c>
-      <c r="H5" s="179" t="s">
+      <c r="H5" s="181" t="s">
         <v>209</v>
       </c>
-      <c r="I5" s="179" t="s">
+      <c r="I5" s="181" t="s">
         <v>206</v>
       </c>
-      <c r="J5" s="179" t="s">
+      <c r="J5" s="181" t="s">
         <v>210</v>
       </c>
-      <c r="K5" s="187" t="s">
+      <c r="K5" s="189" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="11" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="188"/>
-      <c r="B6" s="188"/>
-      <c r="C6" s="188"/>
-      <c r="D6" s="188"/>
+      <c r="A6" s="190"/>
+      <c r="B6" s="190"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="190"/>
       <c r="E6" s="20" t="s">
         <v>127</v>
       </c>
       <c r="F6" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="G6" s="179"/>
-      <c r="H6" s="179"/>
-      <c r="I6" s="179"/>
-      <c r="J6" s="179"/>
-      <c r="K6" s="188"/>
+      <c r="G6" s="181"/>
+      <c r="H6" s="181"/>
+      <c r="I6" s="181"/>
+      <c r="J6" s="181"/>
+      <c r="K6" s="190"/>
     </row>
     <row r="7" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30"/>
@@ -6520,33 +6544,33 @@
       <c r="B16" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="C16" s="190" t="s">
+      <c r="C16" s="192" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="191">
+      <c r="D16" s="193">
         <v>46</v>
       </c>
-      <c r="E16" s="184">
+      <c r="E16" s="186">
         <v>3700</v>
       </c>
-      <c r="F16" s="184">
+      <c r="F16" s="186">
         <v>850</v>
       </c>
-      <c r="G16" s="184">
+      <c r="G16" s="186">
         <v>22</v>
       </c>
-      <c r="H16" s="184">
+      <c r="H16" s="186">
         <v>134400</v>
       </c>
-      <c r="I16" s="184">
+      <c r="I16" s="186">
         <f>G16</f>
         <v>22</v>
       </c>
-      <c r="J16" s="185">
+      <c r="J16" s="187">
         <f>I16*F16</f>
         <v>18700</v>
       </c>
-      <c r="K16" s="185">
+      <c r="K16" s="187">
         <f>J16+H16</f>
         <v>153100</v>
       </c>
@@ -6558,18 +6582,18 @@
       <c r="B17" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="C17" s="190"/>
-      <c r="D17" s="191"/>
-      <c r="E17" s="184"/>
-      <c r="F17" s="184"/>
-      <c r="G17" s="184"/>
-      <c r="H17" s="184"/>
-      <c r="I17" s="184">
+      <c r="C17" s="192"/>
+      <c r="D17" s="193"/>
+      <c r="E17" s="186"/>
+      <c r="F17" s="186"/>
+      <c r="G17" s="186"/>
+      <c r="H17" s="186"/>
+      <c r="I17" s="186">
         <f>G17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="186"/>
-      <c r="K17" s="186"/>
+      <c r="J17" s="188"/>
+      <c r="K17" s="188"/>
       <c r="L17" s="1" t="s">
         <v>212</v>
       </c>
